--- a/ESP32_WS.xlsx
+++ b/ESP32_WS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ESP32_WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C665B05-38E5-4E1B-9743-62F7E31A0C8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F00C2F-129E-402F-86CE-DE48D7AA4D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="ESP32_WS_006" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32_WS_007" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ESP32_WS_007!$A$1:$AE$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="69">
   <si>
     <t>ch</t>
   </si>
@@ -230,6 +233,9 @@
   </si>
   <si>
     <t>0 255  color end</t>
+  </si>
+  <si>
+    <t>color pos</t>
   </si>
 </sst>
 </file>
@@ -1172,16 +1178,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1190,6 +1229,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1208,59 +1259,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -1271,76 +1331,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,44 +1659,44 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="65">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48">
+      <c r="D1" s="66"/>
+      <c r="E1" s="65">
         <v>3</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48">
+      <c r="F1" s="66"/>
+      <c r="G1" s="65">
         <v>4</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="58">
+      <c r="H1" s="66"/>
+      <c r="I1" s="55">
         <v>5</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="64">
+      <c r="J1" s="56"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="49">
         <v>6</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="4">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="64">
+      <c r="Q1" s="49">
         <v>9</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="58">
+      <c r="R1" s="50"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="55">
         <v>10</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="60"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="4">
         <v>11</v>
       </c>
@@ -1700,16 +1706,16 @@
       <c r="Y1" s="4">
         <v>13</v>
       </c>
-      <c r="Z1" s="58">
+      <c r="Z1" s="55">
         <v>14</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="64">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="49">
         <v>15</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="60"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51"/>
       <c r="AF1" s="1">
         <v>16</v>
       </c>
@@ -1721,44 +1727,44 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="61" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
       <c r="W2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1768,34 +1774,34 @@
       <c r="Y2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="65" t="s">
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="10">
         <v>0</v>
       </c>
@@ -1812,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="10">
@@ -1852,13 +1858,13 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="16">
         <v>11</v>
       </c>
@@ -1875,8 +1881,8 @@
         <v>20</v>
       </c>
       <c r="N4" s="18"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="16">
         <v>11</v>
       </c>
@@ -1911,13 +1917,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="16">
         <v>21</v>
       </c>
@@ -1934,8 +1940,8 @@
         <v>30</v>
       </c>
       <c r="N5" s="18"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="16">
         <v>21</v>
       </c>
@@ -1970,13 +1976,13 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="16">
         <v>31</v>
       </c>
@@ -1993,8 +1999,8 @@
         <v>40</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="16">
         <v>31</v>
       </c>
@@ -2029,13 +2035,13 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="16">
         <v>41</v>
       </c>
@@ -2052,8 +2058,8 @@
         <v>50</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="16">
         <v>41</v>
       </c>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="16">
         <v>51</v>
       </c>
@@ -2111,8 +2117,8 @@
         <v>60</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="16">
         <v>51</v>
       </c>
@@ -2147,13 +2153,13 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="16">
         <v>61</v>
       </c>
@@ -2170,8 +2176,8 @@
         <v>70</v>
       </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="16">
         <v>61</v>
       </c>
@@ -2206,13 +2212,13 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="16">
         <v>71</v>
       </c>
@@ -2229,8 +2235,8 @@
         <v>80</v>
       </c>
       <c r="N10" s="18"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
       <c r="Q10" s="16">
         <v>71</v>
       </c>
@@ -2265,13 +2271,13 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="16">
         <v>81</v>
       </c>
@@ -2288,8 +2294,8 @@
         <v>90</v>
       </c>
       <c r="N11" s="18"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="16">
         <v>81</v>
       </c>
@@ -2324,13 +2330,13 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="16">
         <v>91</v>
       </c>
@@ -2347,8 +2353,8 @@
         <v>100</v>
       </c>
       <c r="N12" s="18"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
       <c r="Q12" s="16">
         <v>91</v>
       </c>
@@ -2383,13 +2389,13 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="16">
         <v>101</v>
       </c>
@@ -2406,8 +2412,8 @@
         <v>110</v>
       </c>
       <c r="N13" s="18"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="16">
         <v>101</v>
       </c>
@@ -2442,13 +2448,13 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="16">
         <v>110</v>
       </c>
@@ -2465,8 +2471,8 @@
         <v>120</v>
       </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="16">
         <v>110</v>
       </c>
@@ -2501,13 +2507,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="16">
         <v>120.833333333333</v>
       </c>
@@ -2524,8 +2530,8 @@
         <v>130</v>
       </c>
       <c r="N15" s="18"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="16">
         <v>120.833333333333</v>
       </c>
@@ -2560,13 +2566,13 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="16">
         <v>131</v>
       </c>
@@ -2583,8 +2589,8 @@
         <v>140</v>
       </c>
       <c r="N16" s="18"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
       <c r="Q16" s="16">
         <v>131</v>
       </c>
@@ -2619,13 +2625,13 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="16">
         <v>141</v>
       </c>
@@ -2642,8 +2648,8 @@
         <v>150</v>
       </c>
       <c r="N17" s="18"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
       <c r="Q17" s="16">
         <v>141</v>
       </c>
@@ -3965,14 +3971,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="T2:V2"/>
@@ -3989,6 +3987,14 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3997,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF55FB9-F19A-4BAB-A5EA-2DD5BBE96787}">
-  <dimension ref="A1:AF48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Y28"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,51 +4026,51 @@
     <col min="31" max="31" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="65">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48">
+      <c r="D1" s="66"/>
+      <c r="E1" s="65">
         <v>3</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48">
+      <c r="F1" s="66"/>
+      <c r="G1" s="65">
         <v>4</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="58">
+      <c r="H1" s="66"/>
+      <c r="I1" s="55">
         <v>5</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="64">
+      <c r="J1" s="56"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="49">
         <v>6</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="5">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="64">
+      <c r="Q1" s="49">
         <v>9</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="58">
+      <c r="R1" s="50"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="55">
         <v>10</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="60"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="5">
         <v>11</v>
       </c>
@@ -4074,65 +4080,62 @@
       <c r="Y1" s="5">
         <v>13</v>
       </c>
-      <c r="Z1" s="58">
+      <c r="Z1" s="55">
         <v>14</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="64">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="49">
         <v>15</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="61" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
       <c r="W2" s="8" t="s">
         <v>12</v>
       </c>
@@ -4142,34 +4145,34 @@
       <c r="Y2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="65" t="s">
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="10">
         <v>0</v>
       </c>
@@ -4188,10 +4191,10 @@
       <c r="N3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="10">
@@ -4203,22 +4206,22 @@
       <c r="S3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="85">
+      <c r="T3" s="82">
         <v>0</v>
       </c>
-      <c r="U3" s="86">
+      <c r="U3" s="85">
         <v>255</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="V3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="W3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="61" t="s">
         <v>17</v>
       </c>
       <c r="Z3" s="10">
@@ -4240,15 +4243,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="16">
         <v>11</v>
       </c>
@@ -4267,8 +4270,8 @@
       <c r="N4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="16">
         <v>11</v>
       </c>
@@ -4278,19 +4281,19 @@
       <c r="S4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="88">
+      <c r="T4" s="83"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="46">
         <v>11</v>
       </c>
-      <c r="AA4" s="89">
+      <c r="AA4" s="47">
         <v>20</v>
       </c>
-      <c r="AB4" s="90" t="s">
+      <c r="AB4" s="48" t="s">
         <v>61</v>
       </c>
       <c r="AC4" s="16">
@@ -4303,15 +4306,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="16">
         <v>21</v>
       </c>
@@ -4330,8 +4333,8 @@
       <c r="N5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="16">
         <v>21</v>
       </c>
@@ -4341,19 +4344,19 @@
       <c r="S5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="71"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="88">
+      <c r="T5" s="83"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="46">
         <v>21</v>
       </c>
-      <c r="AA5" s="89">
+      <c r="AA5" s="47">
         <v>30</v>
       </c>
-      <c r="AB5" s="90" t="s">
+      <c r="AB5" s="48" t="s">
         <v>60</v>
       </c>
       <c r="AC5" s="16">
@@ -4366,15 +4369,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="16">
         <v>31</v>
       </c>
@@ -4393,23 +4396,23 @@
       <c r="N6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="70">
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="97">
         <v>31</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="99">
         <v>110</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
       <c r="Z6" s="16">
         <v>31</v>
       </c>
@@ -4427,15 +4430,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="16">
         <v>41</v>
       </c>
@@ -4454,17 +4457,17 @@
       <c r="N7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
       <c r="Z7" s="16">
         <v>41</v>
       </c>
@@ -4480,15 +4483,15 @@
       </c>
       <c r="AE7" s="18"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="16">
         <v>51</v>
       </c>
@@ -4507,17 +4510,17 @@
       <c r="N8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
       <c r="Z8" s="16">
         <v>51</v>
       </c>
@@ -4533,15 +4536,15 @@
       </c>
       <c r="AE8" s="18"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="16">
         <v>61</v>
       </c>
@@ -4560,17 +4563,17 @@
       <c r="N9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
       <c r="Z9" s="16">
         <v>61</v>
       </c>
@@ -4586,15 +4589,15 @@
       </c>
       <c r="AE9" s="18"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="16">
         <v>71</v>
       </c>
@@ -4613,17 +4616,17 @@
       <c r="N10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
       <c r="Z10" s="16">
         <v>71</v>
       </c>
@@ -4639,15 +4642,15 @@
       </c>
       <c r="AE10" s="18"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="16">
         <v>81</v>
       </c>
@@ -4666,17 +4669,17 @@
       <c r="N11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
       <c r="Z11" s="16">
         <v>81</v>
       </c>
@@ -4692,15 +4695,15 @@
       </c>
       <c r="AE11" s="18"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="16">
         <v>91</v>
       </c>
@@ -4719,17 +4722,17 @@
       <c r="N12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
       <c r="Z12" s="16">
         <v>91</v>
       </c>
@@ -4745,15 +4748,15 @@
       </c>
       <c r="AE12" s="18"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="16">
         <v>101</v>
       </c>
@@ -4772,17 +4775,17 @@
       <c r="N13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
       <c r="Z13" s="16">
         <v>101</v>
       </c>
@@ -4798,15 +4801,15 @@
       </c>
       <c r="AE13" s="18"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="16">
         <v>111</v>
       </c>
@@ -4825,8 +4828,8 @@
       <c r="N14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="16">
         <v>111</v>
       </c>
@@ -4836,12 +4839,12 @@
       <c r="S14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
       <c r="Z14" s="16">
         <v>111</v>
       </c>
@@ -4857,15 +4860,15 @@
       </c>
       <c r="AE14" s="18"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="16">
         <v>120.833333333333</v>
       </c>
@@ -4884,23 +4887,23 @@
       <c r="N15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="70">
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="97">
         <v>120.833333333333</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="99">
         <v>200</v>
       </c>
-      <c r="S15" s="79" t="s">
+      <c r="S15" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="71"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="16">
         <v>120.833333333333</v>
       </c>
@@ -4916,15 +4919,15 @@
       </c>
       <c r="AE15" s="18"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="16">
         <v>131</v>
       </c>
@@ -4943,17 +4946,17 @@
       <c r="N16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="16">
         <v>131</v>
       </c>
@@ -4971,13 +4974,13 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="16">
         <v>141</v>
       </c>
@@ -4996,17 +4999,17 @@
       <c r="N17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
       <c r="Z17" s="16">
         <v>141</v>
       </c>
@@ -5025,18 +5028,18 @@
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="94" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="94" t="s">
+      <c r="F18" s="74"/>
+      <c r="G18" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="96"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="35">
         <v>150.833333333333</v>
       </c>
@@ -5052,13 +5055,15 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="80"/>
+      <c r="P18" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="89"/>
       <c r="W18" s="91" t="s">
         <v>66</v>
       </c>
@@ -5086,12 +5091,12 @@
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="99"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="35">
         <v>161</v>
       </c>
@@ -5107,13 +5112,13 @@
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="80"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="89"/>
       <c r="W19" s="92"/>
       <c r="X19" s="92"/>
       <c r="Y19" s="92"/>
@@ -5135,12 +5140,12 @@
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="99"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="35">
         <v>171</v>
       </c>
@@ -5156,13 +5161,13 @@
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="80"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="89"/>
       <c r="W20" s="92"/>
       <c r="X20" s="92"/>
       <c r="Y20" s="92"/>
@@ -5184,12 +5189,12 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="99"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="35">
         <v>181</v>
       </c>
@@ -5205,13 +5210,13 @@
       </c>
       <c r="N21" s="18"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="80"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="89"/>
       <c r="W21" s="92"/>
       <c r="X21" s="92"/>
       <c r="Y21" s="92"/>
@@ -5233,12 +5238,12 @@
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="99"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="35">
         <v>191</v>
       </c>
@@ -5254,13 +5259,13 @@
       </c>
       <c r="N22" s="18"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="80"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="89"/>
       <c r="W22" s="92"/>
       <c r="X22" s="92"/>
       <c r="Y22" s="92"/>
@@ -5282,12 +5287,12 @@
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="99"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="35">
         <v>201</v>
       </c>
@@ -5303,19 +5308,19 @@
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="70">
+      <c r="P23" s="92"/>
+      <c r="Q23" s="97">
         <v>201</v>
       </c>
-      <c r="R23" s="73">
+      <c r="R23" s="99">
         <v>255</v>
       </c>
-      <c r="S23" s="79" t="s">
+      <c r="S23" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="71"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="80"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="89"/>
       <c r="W23" s="92"/>
       <c r="X23" s="92"/>
       <c r="Y23" s="92"/>
@@ -5337,12 +5342,12 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="99"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="35">
         <v>210</v>
       </c>
@@ -5358,13 +5363,13 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="80"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="89"/>
       <c r="W24" s="92"/>
       <c r="X24" s="92"/>
       <c r="Y24" s="92"/>
@@ -5386,12 +5391,12 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="99"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="35">
         <v>221</v>
       </c>
@@ -5407,13 +5412,13 @@
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="80"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="89"/>
       <c r="W25" s="92"/>
       <c r="X25" s="92"/>
       <c r="Y25" s="92"/>
@@ -5435,12 +5440,12 @@
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="35">
         <v>231</v>
       </c>
@@ -5456,13 +5461,13 @@
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="80"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="89"/>
       <c r="W26" s="92"/>
       <c r="X26" s="92"/>
       <c r="Y26" s="92"/>
@@ -5484,12 +5489,12 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="35">
         <v>241</v>
       </c>
@@ -5505,13 +5510,13 @@
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="80"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="89"/>
       <c r="W27" s="92"/>
       <c r="X27" s="92"/>
       <c r="Y27" s="92"/>
@@ -5533,12 +5538,12 @@
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="102"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="36">
         <v>251</v>
       </c>
@@ -5554,13 +5559,13 @@
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="25"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="84"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="90"/>
       <c r="W28" s="93"/>
       <c r="X28" s="93"/>
       <c r="Y28" s="93"/>
@@ -6240,36 +6245,7 @@
       <c r="AE48" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="W18:W28"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="P3:P17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
+  <mergeCells count="46">
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -6286,8 +6262,38 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="W18:W28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="P18:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ESP32_WS.xlsx
+++ b/ESP32_WS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ESP32_WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F00C2F-129E-402F-86CE-DE48D7AA4D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C2DAF-D18B-4A0D-92A0-6364FE562CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18990" yWindow="750" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_WS_006" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>ch</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>color pos</t>
+  </si>
+  <si>
+    <t>color long</t>
   </si>
 </sst>
 </file>
@@ -4003,10 +4006,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF55FB9-F19A-4BAB-A5EA-2DD5BBE96787}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5054,7 +5060,9 @@
         <v>160</v>
       </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+      <c r="O18" s="91" t="s">
+        <v>69</v>
+      </c>
       <c r="P18" s="91" t="s">
         <v>68</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>170</v>
       </c>
       <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="92"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="86"/>
@@ -5160,7 +5168,7 @@
         <v>180</v>
       </c>
       <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
+      <c r="O20" s="92"/>
       <c r="P20" s="92"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="86"/>
@@ -5209,7 +5217,7 @@
         <v>190</v>
       </c>
       <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
+      <c r="O21" s="92"/>
       <c r="P21" s="92"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="86"/>
@@ -5258,7 +5266,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+      <c r="O22" s="92"/>
       <c r="P22" s="92"/>
       <c r="Q22" s="98"/>
       <c r="R22" s="100"/>
@@ -5307,7 +5315,7 @@
         <v>210</v>
       </c>
       <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="92"/>
       <c r="P23" s="92"/>
       <c r="Q23" s="97">
         <v>201</v>
@@ -5362,7 +5370,7 @@
         <v>220</v>
       </c>
       <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
+      <c r="O24" s="92"/>
       <c r="P24" s="92"/>
       <c r="Q24" s="83"/>
       <c r="R24" s="86"/>
@@ -5411,7 +5419,7 @@
         <v>230</v>
       </c>
       <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
+      <c r="O25" s="92"/>
       <c r="P25" s="92"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="86"/>
@@ -5460,7 +5468,7 @@
         <v>240</v>
       </c>
       <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+      <c r="O26" s="92"/>
       <c r="P26" s="92"/>
       <c r="Q26" s="83"/>
       <c r="R26" s="86"/>
@@ -5509,7 +5517,7 @@
         <v>250</v>
       </c>
       <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
+      <c r="O27" s="92"/>
       <c r="P27" s="92"/>
       <c r="Q27" s="83"/>
       <c r="R27" s="86"/>
@@ -5558,7 +5566,7 @@
         <v>255</v>
       </c>
       <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
+      <c r="O28" s="93"/>
       <c r="P28" s="93"/>
       <c r="Q28" s="84"/>
       <c r="R28" s="87"/>
@@ -6245,7 +6253,7 @@
       <c r="AE48" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -6292,8 +6300,9 @@
     <mergeCell ref="R23:R28"/>
     <mergeCell ref="S23:S28"/>
     <mergeCell ref="P18:P28"/>
+    <mergeCell ref="O18:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>